--- a/pred_ohlcv/54_21/2019-10-31 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 PAY ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-270513.5609999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-270513.5609999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-270503.4409999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-282125.6244999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-279813.7219999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-278626.0137999999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-222446.0435999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-219646.0435999999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-205010.1496999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-214977.2703999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-220369.2703999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-208411.2703999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-189969.4875999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-174348.1010999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-174042.1010999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-168641.0192</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-139787.474</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-149776.0753</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-151735.0753</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-153738.0753</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-143061.6776</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-128736.8433</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-134006.5814</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-126119.5814</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-133142.3854</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-127542.3854</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-137699.5062</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-137299.5062</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-145646.0448</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-150393.185</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-148125.185</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-139096.6919</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-139526.6919</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-139050.6919</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-146643.6919</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-146643.6919</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-150404.6127</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-150404.6127</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-150404.6127</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-150394.6127</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-150394.6127</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-173940.6127</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-219742.6711</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-218532.5611</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-200711.0439349945</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 PAY ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-277036.0137999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-277026.0137999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-277026.0137999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-278626.0137999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-269011.0435999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-269011.0435999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-268550.0435999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-252125.0435999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-222446.0435999999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-219646.0435999999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-205270.1496999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-205010.1496999999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-214977.2703999999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-220369.2703999999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-208411.2703999999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-189969.4875999999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-174348.1010999999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-174042.1010999999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-168641.0192</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-139787.474</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-156200.0753</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-156200.0753</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-152907.0753</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-152907.0753</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-147764.0753</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-149776.0753</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-152976.0753</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-151735.0753</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-153738.0753</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-143061.6776</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-128736.8433</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-128736.8433</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-134006.5814</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-126119.5814</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-133142.3854</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-127542.3854</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-127542.3854</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-127542.3854</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-137699.5062</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-137299.5062</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-145646.0448</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-146046.0448</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-150393.185</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-139096.6919</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-139096.6919</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-139526.6919</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-139050.6919</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-146643.6919</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-146643.6919</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-219742.6711</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-218532.5611</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-200711.0439349945</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
